--- a/タスク表_類語検索・置換ツール.xlsx
+++ b/タスク表_類語検索・置換ツール.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konicaminolta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynonyMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A41C4A9-E761-4344-98C2-8B46E81CC1B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95944B-9397-4940-BA86-9069A809AFFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>ワープロ機能</t>
     <rPh sb="4" eb="6">
@@ -707,6 +707,13 @@
   </si>
   <si>
     <t>Feature_NF_04</t>
+  </si>
+  <si>
+    <t>Feature_W_01で完了</t>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -797,11 +804,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,14 +1127,15 @@
   <dimension ref="A2:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9" style="4"/>
     <col min="6" max="6" width="9" style="4"/>
+    <col min="7" max="8" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1143,7 +1151,7 @@
       <c r="E2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -1246,23 +1254,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B18" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E18" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <v>44167</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="6">
+        <v>44169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>71</v>
       </c>
@@ -1270,12 +1281,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B21" s="4" t="s">
         <v>72</v>
       </c>
@@ -1283,33 +1294,39 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B22" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B24" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
@@ -1317,7 +1334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">
         <v>76</v>
       </c>
@@ -1325,7 +1342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B28" s="4" t="s">
         <v>77</v>
       </c>
@@ -1333,12 +1350,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
         <v>78</v>
       </c>
@@ -1346,7 +1363,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F31" s="4" t="s">
         <v>34</v>
       </c>

--- a/タスク表_類語検索・置換ツール.xlsx
+++ b/タスク表_類語検索・置換ツール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynonyMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95944B-9397-4940-BA86-9069A809AFFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9427E6-9712-41DD-978A-2421CD64D983}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
   </bookViews>
@@ -1128,7 +1128,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1333,6 +1333,9 @@
       <c r="E26" t="s">
         <v>8</v>
       </c>
+      <c r="G26" s="6">
+        <v>44169</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">

--- a/タスク表_類語検索・置換ツール.xlsx
+++ b/タスク表_類語検索・置換ツール.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynonyMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95944B-9397-4940-BA86-9069A809AFFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574408BD-6035-47AF-9EC8-5CC29A26C5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1127,8 +1127,8 @@
   <dimension ref="A2:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1333,6 +1333,12 @@
       <c r="E26" t="s">
         <v>8</v>
       </c>
+      <c r="G26" s="6">
+        <v>44169</v>
+      </c>
+      <c r="H26" s="6">
+        <v>44170</v>
+      </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">

--- a/タスク表_類語検索・置換ツール.xlsx
+++ b/タスク表_類語検索・置換ツール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynonyMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574408BD-6035-47AF-9EC8-5CC29A26C5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CEC3DC-E839-42E5-8BAA-8CF912E8C8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>ワープロ機能</t>
     <rPh sb="4" eb="6">
@@ -712,6 +712,13 @@
     <t>Feature_W_01で完了</t>
     <rPh sb="13" eb="15">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Feature_S_05と同</t>
+    <rPh sb="13" eb="14">
+      <t>ドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1135,7 +1142,8 @@
   <cols>
     <col min="2" max="2" width="9" style="4"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1377,7 +1385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -1385,23 +1393,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F36" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F37" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3"/>
       <c r="F38" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1409,12 +1417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
         <v>81</v>
       </c>
@@ -1422,7 +1430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
         <v>82</v>
       </c>
@@ -1430,12 +1438,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
         <v>83</v>
       </c>
@@ -1443,7 +1451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B46" s="4" t="s">
         <v>84</v>
       </c>
@@ -1451,20 +1459,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B48" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G48" s="6">
+        <v>44174</v>
+      </c>
+      <c r="H48" s="6">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B49" s="4" t="s">
         <v>86</v>
       </c>
@@ -1472,23 +1486,26 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F50" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F51" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="3"/>
       <c r="F52" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -1496,17 +1513,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B57" s="4" t="s">
         <v>88</v>
       </c>
@@ -1514,7 +1531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
         <v>89</v>
       </c>
@@ -1522,12 +1539,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D59" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B60" s="4" t="s">
         <v>90</v>
       </c>
@@ -1535,7 +1552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B61" s="4" t="s">
         <v>91</v>
       </c>
@@ -1543,7 +1560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D62" t="s">
         <v>45</v>
       </c>

--- a/タスク表_類語検索・置換ツール.xlsx
+++ b/タスク表_類語検索・置換ツール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynonyMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574408BD-6035-47AF-9EC8-5CC29A26C5AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D450F9-4787-417F-BECB-2FBAB6D2839C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1127,8 +1127,8 @@
   <dimension ref="A2:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1377,7 +1377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -1385,23 +1385,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F36" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F37" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3"/>
       <c r="F38" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1409,12 +1409,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
         <v>81</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
         <v>82</v>
       </c>
@@ -1430,12 +1430,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
         <v>83</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B46" s="4" t="s">
         <v>84</v>
       </c>
@@ -1451,17 +1451,20 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B48" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E48" t="s">
         <v>26</v>
+      </c>
+      <c r="G48" s="6">
+        <v>44174</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">

--- a/タスク表_類語検索・置換ツール.xlsx
+++ b/タスク表_類語検索・置換ツール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynonyMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D450F9-4787-417F-BECB-2FBAB6D2839C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F361CC79-65DF-4E3B-BE82-90D3216726D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>ワープロ機能</t>
     <rPh sb="4" eb="6">
@@ -712,6 +712,13 @@
     <t>Feature_W_01で完了</t>
     <rPh sb="13" eb="15">
       <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※類語グループリストのみ</t>
+    <rPh sb="1" eb="3">
+      <t>ルイゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1124,18 +1131,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42B38D0-FB72-4DDB-8690-5159BA350420}">
-  <dimension ref="A2:H62"/>
+  <dimension ref="A2:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G48" sqref="G48"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9" style="4"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="8" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1377,7 +1385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -1385,23 +1393,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F36" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="F37" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3"/>
       <c r="F38" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1409,12 +1417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B42" s="4" t="s">
         <v>81</v>
       </c>
@@ -1422,7 +1430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
         <v>82</v>
       </c>
@@ -1430,12 +1438,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B45" s="4" t="s">
         <v>83</v>
       </c>
@@ -1443,7 +1451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B46" s="4" t="s">
         <v>84</v>
       </c>
@@ -1451,12 +1459,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="D47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B48" s="4" t="s">
         <v>85</v>
       </c>
@@ -1465,6 +1473,12 @@
       </c>
       <c r="G48" s="6">
         <v>44174</v>
+      </c>
+      <c r="H48" s="6">
+        <v>44185</v>
+      </c>
+      <c r="I48" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">

--- a/タスク表_類語検索・置換ツール.xlsx
+++ b/タスク表_類語検索・置換ツール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynonyMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CEC3DC-E839-42E5-8BAA-8CF912E8C8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78F6B5C-43AE-4000-9D9A-3383D9F06CA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
   </bookViews>
@@ -752,7 +752,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -789,13 +789,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +826,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1134,16 +1151,15 @@
   <dimension ref="A2:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9" style="4"/>
     <col min="6" max="6" width="9" style="4"/>
-    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1478,7 +1494,7 @@
         <v>44187</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B49" s="4" t="s">
         <v>86</v>
       </c>
@@ -1486,7 +1502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F50" s="4" t="s">
         <v>28</v>
       </c>
@@ -1494,18 +1510,24 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F51" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="3"/>
       <c r="F52" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G52" s="7">
+        <v>44187</v>
+      </c>
+      <c r="H52" s="8">
+        <v>44189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -1513,17 +1535,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B57" s="4" t="s">
         <v>88</v>
       </c>
@@ -1531,7 +1553,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B58" s="4" t="s">
         <v>89</v>
       </c>
@@ -1539,12 +1561,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D59" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B60" s="4" t="s">
         <v>90</v>
       </c>
@@ -1552,7 +1574,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B61" s="4" t="s">
         <v>91</v>
       </c>
@@ -1560,7 +1582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D62" t="s">
         <v>45</v>
       </c>

--- a/タスク表_類語検索・置換ツール.xlsx
+++ b/タスク表_類語検索・置換ツール.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynonyMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78F6B5C-43AE-4000-9D9A-3383D9F06CA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E031CE-A3B0-43F6-B5A3-95B30E045C4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
   </bookViews>
@@ -1152,7 +1152,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1514,6 +1514,9 @@
       <c r="F51" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="G51" s="6">
+        <v>44206</v>
+      </c>
     </row>
     <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B52" s="3"/>

--- a/タスク表_類語検索・置換ツール.xlsx
+++ b/タスク表_類語検索・置換ツール.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynonyMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CEC3DC-E839-42E5-8BAA-8CF912E8C8C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3619E45-D8BC-479A-B827-A5848F4DFF8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13996" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>ワープロ機能</t>
     <rPh sb="4" eb="6">
@@ -1134,11 +1134,11 @@
   <dimension ref="A2:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="2" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="9" style="4"/>
     <col min="6" max="6" width="9" style="4"/>
@@ -1146,7 +1146,7 @@
     <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1177,17 +1177,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B6" s="4" t="s">
         <v>61</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
@@ -1203,12 +1203,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B10" s="4" t="s">
         <v>64</v>
       </c>
@@ -1224,12 +1224,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B12" s="4" t="s">
         <v>65</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
       <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1262,12 +1262,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.7">
       <c r="D17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B18" s="4" t="s">
         <v>68</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B19" s="4" t="s">
         <v>71</v>
       </c>
@@ -1289,12 +1289,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.7">
       <c r="D20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B21" s="4" t="s">
         <v>72</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B22" s="4" t="s">
         <v>73</v>
       </c>
@@ -1313,12 +1313,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.7">
       <c r="D23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B24" s="4" t="s">
         <v>74</v>
       </c>
@@ -1329,12 +1329,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.7">
       <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>44170</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B27" s="4" t="s">
         <v>76</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B28" s="4" t="s">
         <v>77</v>
       </c>
@@ -1364,12 +1364,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.7">
       <c r="D29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B30" s="4" t="s">
         <v>78</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B31" s="4" t="s">
         <v>79</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -1393,23 +1393,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
       <c r="F36" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
       <c r="F37" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
       <c r="B38" s="3"/>
       <c r="F38" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1417,12 +1417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B42" s="4" t="s">
         <v>81</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B43" s="4" t="s">
         <v>82</v>
       </c>
@@ -1438,12 +1438,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B45" s="4" t="s">
         <v>83</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B46" s="4" t="s">
         <v>84</v>
       </c>
@@ -1459,12 +1459,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B48" s="4" t="s">
         <v>85</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>44187</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B49" s="4" t="s">
         <v>86</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
       <c r="F50" s="4" t="s">
         <v>28</v>
       </c>
@@ -1494,18 +1494,25 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
       <c r="F51" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
       <c r="B52" s="3"/>
       <c r="F52" s="3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -1513,17 +1520,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B57" s="4" t="s">
         <v>88</v>
       </c>
@@ -1531,7 +1538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B58" s="4" t="s">
         <v>89</v>
       </c>
@@ -1539,12 +1546,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D59" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B60" s="4" t="s">
         <v>90</v>
       </c>
@@ -1552,7 +1559,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B61" s="4" t="s">
         <v>91</v>
       </c>
@@ -1560,7 +1567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D62" t="s">
         <v>45</v>
       </c>

--- a/タスク表_類語検索・置換ツール.xlsx
+++ b/タスク表_類語検索・置換ツール.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynonyMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E031CE-A3B0-43F6-B5A3-95B30E045C4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1805CAB-1FCB-4D4F-A4C0-A4B9E7A35428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13996" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1152,17 +1152,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="2" max="2" width="9" style="4"/>
     <col min="6" max="6" width="9" style="4"/>
     <col min="7" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1193,17 +1193,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B6" s="4" t="s">
         <v>61</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
@@ -1219,12 +1219,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B10" s="4" t="s">
         <v>64</v>
       </c>
@@ -1240,12 +1240,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B12" s="4" t="s">
         <v>65</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
       <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1278,12 +1278,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.7">
       <c r="D17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B18" s="4" t="s">
         <v>68</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B19" s="4" t="s">
         <v>71</v>
       </c>
@@ -1305,12 +1305,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.7">
       <c r="D20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B21" s="4" t="s">
         <v>72</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B22" s="4" t="s">
         <v>73</v>
       </c>
@@ -1329,12 +1329,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.7">
       <c r="D23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B24" s="4" t="s">
         <v>74</v>
       </c>
@@ -1345,12 +1345,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.7">
       <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B26" s="4" t="s">
         <v>75</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>44170</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B27" s="4" t="s">
         <v>76</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B28" s="4" t="s">
         <v>77</v>
       </c>
@@ -1380,12 +1380,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.7">
       <c r="D29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B30" s="4" t="s">
         <v>78</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.7">
       <c r="B31" s="4" t="s">
         <v>79</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B35" s="4" t="s">
         <v>79</v>
       </c>
@@ -1409,23 +1409,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
       <c r="F36" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
       <c r="F37" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
       <c r="B38" s="3"/>
       <c r="F38" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1433,12 +1433,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B42" s="4" t="s">
         <v>81</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B43" s="4" t="s">
         <v>82</v>
       </c>
@@ -1454,12 +1454,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D44" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B45" s="4" t="s">
         <v>83</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B46" s="4" t="s">
         <v>84</v>
       </c>
@@ -1475,12 +1475,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D47" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B48" s="4" t="s">
         <v>85</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>44187</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B49" s="4" t="s">
         <v>86</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
       <c r="F50" s="4" t="s">
         <v>28</v>
       </c>
@@ -1510,15 +1510,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
       <c r="F51" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G51" s="6">
         <v>44206</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="H51" s="6">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
       <c r="B52" s="3"/>
       <c r="F52" s="3" t="s">
         <v>30</v>
@@ -1530,7 +1533,7 @@
         <v>44189</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -1538,17 +1541,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D56" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B57" s="4" t="s">
         <v>88</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B58" s="4" t="s">
         <v>89</v>
       </c>
@@ -1564,12 +1567,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D59" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B60" s="4" t="s">
         <v>90</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B61" s="4" t="s">
         <v>91</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D62" t="s">
         <v>45</v>
       </c>

--- a/タスク表_類語検索・置換ツール.xlsx
+++ b/タスク表_類語検索・置換ツール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynonyMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1805CAB-1FCB-4D4F-A4C0-A4B9E7A35428}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F95F612-F4AA-46AF-A10C-1CC05DDD6569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13996" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>ワープロ機能</t>
     <rPh sb="4" eb="6">
@@ -719,6 +719,75 @@
     <t>Feature_S_05と同</t>
     <rPh sb="13" eb="14">
       <t>ドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>類語グループ表示</t>
+    <rPh sb="0" eb="2">
+      <t>ルイゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Feature_D_08</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>類語グループ画面を、メイン画面の左側の予約領域に表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ルイゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒダリガワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面全般</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゼンパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Feature_D_09</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>類語グループ領域や検索結果領域を開閉できるようにする</t>
+    <rPh sb="0" eb="2">
+      <t>ルイゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="9" eb="15">
+      <t>ケンサクケッカリョウイキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カイヘイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1148,11 +1217,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42B38D0-FB72-4DDB-8690-5159BA350420}">
-  <dimension ref="A2:H62"/>
+  <dimension ref="A2:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1261,335 +1330,364 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="D15" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A16" t="s">
+      <c r="B16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
+      <c r="B22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A24" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C24" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="D17" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="D25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B18" s="4" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E26" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G26" s="6">
         <v>44167</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H26" s="6">
         <v>44169</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B19" s="4" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="D20" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="D28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B21" s="4" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B22" s="4" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E30" t="s">
         <v>41</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="D23" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="D31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B24" s="4" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B32" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E32" t="s">
         <v>6</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="D25" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="D33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B26" s="4" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E34" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G34" s="6">
         <v>44169</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H34" s="6">
         <v>44170</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.7">
-      <c r="B31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B35" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B39" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="F36" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="F37" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
-      <c r="B38" s="3"/>
-      <c r="F38" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="D41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" t="s">
-        <v>43</v>
+      <c r="F39" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B43" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="F44" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="F45" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
+      <c r="B46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="D49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B51" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E51" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="D44" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="D52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B45" s="4" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E53" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B46" s="4" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="B54" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E54" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="D47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B48" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E48" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" s="6">
-        <v>44174</v>
-      </c>
-      <c r="H48" s="6">
-        <v>44187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B49" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="F50" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="F51" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G51" s="6">
-        <v>44206</v>
-      </c>
-      <c r="H51" s="6">
-        <v>44242</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
-      <c r="B52" s="3"/>
-      <c r="F52" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G52" s="7">
-        <v>44187</v>
-      </c>
-      <c r="H52" s="8">
-        <v>44189</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="A54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.7">
       <c r="D55" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="D56" t="s">
-        <v>21</v>
+      <c r="B56" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="6">
+        <v>44174</v>
+      </c>
+      <c r="H56" s="6">
+        <v>44187</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B57" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="F58" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="F59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="6">
+        <v>44206</v>
+      </c>
+      <c r="H59" s="6">
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
+      <c r="B60" s="3"/>
+      <c r="F60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" s="7">
+        <v>44187</v>
+      </c>
+      <c r="H60" s="8">
+        <v>44189</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B65" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E65" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B58" s="4" t="s">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B66" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E66" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="D59" t="s">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D67" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B60" s="4" t="s">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B68" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E68" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="B61" s="4" t="s">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="B69" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E69" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.7">
-      <c r="D62" t="s">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.7">
+      <c r="D70" t="s">
         <v>45</v>
       </c>
     </row>

--- a/タスク表_類語検索・置換ツール.xlsx
+++ b/タスク表_類語検索・置換ツール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynonyMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F95F612-F4AA-46AF-A10C-1CC05DDD6569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D1D5BE-6694-4A6A-8F6C-25AE57F3F2A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13996" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
   </bookViews>
@@ -1221,7 +1221,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
@@ -1300,6 +1300,9 @@
       <c r="E9" t="s">
         <v>17</v>
       </c>
+      <c r="G9" s="6">
+        <v>44242</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.7">
       <c r="B10" s="4" t="s">

--- a/タスク表_類語検索・置換ツール.xlsx
+++ b/タスク表_類語検索・置換ツール.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynonyMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F95F612-F4AA-46AF-A10C-1CC05DDD6569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2927A724-798D-4538-A8D9-5D675589AF5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13996" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1221,17 +1221,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="9" style="4"/>
     <col min="6" max="6" width="9" style="4"/>
     <col min="7" max="8" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>60</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1262,17 +1262,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B6" s="4" t="s">
         <v>61</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
@@ -1288,33 +1288,42 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="G9" s="6">
+        <v>44242</v>
+      </c>
+      <c r="H9" s="6">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.7">
+      <c r="H10" s="6">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B12" s="4" t="s">
         <v>65</v>
       </c>
@@ -1322,7 +1331,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
@@ -1330,7 +1339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B14" s="4" t="s">
         <v>67</v>
       </c>
@@ -1338,12 +1347,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B16" s="4" t="s">
         <v>95</v>
       </c>
@@ -1351,12 +1360,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B19" s="4" t="s">
         <v>98</v>
       </c>
@@ -1364,11 +1373,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -1376,12 +1385,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B26" s="4" t="s">
         <v>68</v>
       </c>
@@ -1395,7 +1404,7 @@
         <v>44169</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B27" s="4" t="s">
         <v>71</v>
       </c>
@@ -1403,12 +1412,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B29" s="4" t="s">
         <v>72</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B30" s="4" t="s">
         <v>73</v>
       </c>
@@ -1427,12 +1436,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B32" s="4" t="s">
         <v>74</v>
       </c>
@@ -1443,12 +1452,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B34" s="4" t="s">
         <v>75</v>
       </c>
@@ -1462,7 +1471,7 @@
         <v>44170</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B35" s="4" t="s">
         <v>76</v>
       </c>
@@ -1470,7 +1479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B36" s="4" t="s">
         <v>77</v>
       </c>
@@ -1478,12 +1487,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B38" s="4" t="s">
         <v>78</v>
       </c>
@@ -1491,7 +1500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B39" s="4" t="s">
         <v>79</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B43" s="4" t="s">
         <v>79</v>
       </c>
@@ -1507,23 +1516,23 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F44" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F45" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B46" s="3"/>
       <c r="F46" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -1531,12 +1540,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B50" s="4" t="s">
         <v>81</v>
       </c>
@@ -1544,7 +1553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B51" s="4" t="s">
         <v>82</v>
       </c>
@@ -1552,12 +1561,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B53" s="4" t="s">
         <v>83</v>
       </c>
@@ -1565,7 +1574,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B54" s="4" t="s">
         <v>84</v>
       </c>
@@ -1573,12 +1582,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B56" s="4" t="s">
         <v>85</v>
       </c>
@@ -1592,7 +1601,7 @@
         <v>44187</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B57" s="4" t="s">
         <v>86</v>
       </c>
@@ -1600,7 +1609,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F58" s="4" t="s">
         <v>28</v>
       </c>
@@ -1608,7 +1617,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="F59" s="4" t="s">
         <v>29</v>
       </c>
@@ -1619,7 +1628,7 @@
         <v>44242</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B60" s="3"/>
       <c r="F60" s="3" t="s">
         <v>30</v>
@@ -1631,7 +1640,7 @@
         <v>44189</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>87</v>
       </c>
@@ -1639,17 +1648,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D63" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D64" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B65" s="4" t="s">
         <v>88</v>
       </c>
@@ -1657,7 +1666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B66" s="4" t="s">
         <v>89</v>
       </c>
@@ -1665,12 +1674,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D67" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B68" s="4" t="s">
         <v>90</v>
       </c>
@@ -1678,7 +1687,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B69" s="4" t="s">
         <v>91</v>
       </c>
@@ -1686,7 +1695,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.7">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
       <c r="D70" t="s">
         <v>45</v>
       </c>

--- a/タスク表_類語検索・置換ツール.xlsx
+++ b/タスク表_類語検索・置換ツール.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SynonyMe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2927A724-798D-4538-A8D9-5D675589AF5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E63C1FB-A610-4B45-999B-16AF0DB15074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A689E07-B56C-4CEF-839F-9FC026A9D44C}"/>
   </bookViews>
@@ -1221,7 +1221,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1359,6 +1359,9 @@
       <c r="E16" t="s">
         <v>96</v>
       </c>
+      <c r="G16" s="6">
+        <v>44348</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
